--- a/analysis/ExData/Questionnaire/CutData/All_Ownership.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/All_Ownership.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
   <si>
     <t>Participant</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
   </si>
   <si>
     <t>Kitamichi</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -464,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -498,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -515,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -549,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -566,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -583,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -600,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -617,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -634,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -651,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -668,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -685,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -702,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -719,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -736,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -753,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -787,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -804,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -838,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -855,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -889,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -906,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>55.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -923,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -940,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>46.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -957,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -974,13 +977,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>12.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -991,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>35.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1008,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>37.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1025,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1042,13 +1045,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1059,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1076,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>-18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1093,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>-3.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1110,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>-7.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1127,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1144,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>-13.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1161,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1178,13 +1181,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45">
-        <v>-21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1195,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1212,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1229,13 +1232,13 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>-8.5</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1246,13 +1249,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1263,13 +1266,13 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1280,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1297,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>-3.5</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1314,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1331,13 +1334,13 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54">
-        <v>45</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1348,13 +1351,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1365,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>-0.5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>1.5</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1399,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>6.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1416,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1433,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1450,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>5.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1467,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1484,13 +1487,13 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>20.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1501,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1518,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>14.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1535,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1552,13 +1555,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1569,13 +1572,13 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1586,13 +1589,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>13.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1603,13 +1606,13 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>30.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1620,13 +1623,13 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1637,13 +1640,13 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>28.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1654,13 +1657,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1671,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>42.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1688,7 +1691,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -1705,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1722,13 +1725,13 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>41.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1739,13 +1742,13 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78">
-        <v>39.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1756,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1773,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1790,13 +1793,13 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>-4.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1807,12 +1810,165 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
         <v>7</v>
       </c>
     </row>
